--- a/Term-3/Электотехника/Lab-02/Lab-02.xlsx
+++ b/Term-3/Электотехника/Lab-02/Lab-02.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimap\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\IT\IU5\Term-3\Электотехника\Lab-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3320DDCB-4F6A-4070-97C5-9191320F4323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBCE1A9-7E57-4C5B-9FEF-13DE51931883}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{195C08B7-9934-45AB-919D-26387199E3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -48,7 +39,7 @@
     <t>I, А</t>
   </si>
   <si>
-    <t>r =</t>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -482,7 +473,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -527,7 +518,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1534,15 +1525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8F45B-F179-4DA9-9F28-FE710D1635E2}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1552,8 +1543,11 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1563,8 +1557,12 @@
       <c r="C2" s="5">
         <v>0</v>
       </c>
+      <c r="D2">
+        <f>-(B3-B2)/(C3-C2)</f>
+        <v>13.564022184712352</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>30000</v>
       </c>
@@ -1575,8 +1573,12 @@
         <f>B3/A3</f>
         <v>1.1058666666666668E-3</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D16" si="0">-(B4-B3)/(C4-C3)</f>
+        <v>13.584495562399553</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>9000</v>
       </c>
@@ -1587,8 +1589,12 @@
         <f>B4/A4</f>
         <v>3.682333333333333E-3</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>15.696801492332888</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>3000</v>
       </c>
@@ -1599,8 +1605,12 @@
         <f>B5/A5</f>
         <v>1.1008666666666668E-2</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>20.476385821893604</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>2300</v>
       </c>
@@ -1611,15 +1621,13 @@
         <f>B6/A6</f>
         <v>1.4329565217391304E-2</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <f>-(B6-B5)/(C6-C5)</f>
-        <v>20.476385821893604</v>
-      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>169.92189185690194</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>1600</v>
       </c>
@@ -1630,8 +1638,12 @@
         <f>B7/A7</f>
         <v>1.9996875000000001E-2</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-9599999.9999371078</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>1500</v>
       </c>
@@ -1639,11 +1651,15 @@
         <v>29.995000000000001</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:C15" si="0">B8/A8</f>
+        <f t="shared" ref="C8:C15" si="1">B8/A8</f>
         <v>1.9996666666666666E-2</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>8097300.0000228109</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>1350</v>
       </c>
@@ -1651,11 +1667,15 @@
         <v>26.995999999999999</v>
       </c>
       <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9997037037037035E-2</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>1.9997037037037035E-2</v>
+        <v>6477839.9999575596</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>1200</v>
       </c>
@@ -1663,11 +1683,15 @@
         <v>23.997</v>
       </c>
       <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9997500000000001E-2</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>1.9997500000000001E-2</v>
+        <v>7997999.999991999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>1000</v>
       </c>
@@ -1675,11 +1699,15 @@
         <v>19.998000000000001</v>
       </c>
       <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9998000000000002E-2</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>1.9998000000000002E-2</v>
+        <v>7498500.0000055097</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>750</v>
       </c>
@@ -1687,11 +1715,15 @@
         <v>14.999000000000001</v>
       </c>
       <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9998666666666668E-2</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>1.9998666666666668E-2</v>
+        <v>-7500000.0000055097</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>500</v>
       </c>
@@ -1699,11 +1731,15 @@
         <v>9.9990000000000006</v>
       </c>
       <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9998000000000002E-2</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>1.9998000000000002E-2</v>
+        <v>3999500.0000029383</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>100</v>
       </c>
@@ -1711,11 +1747,11 @@
         <v>2</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1723,11 +1759,11 @@
         <v>0.02</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>0</v>
       </c>
@@ -1738,12 +1774,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Term-3/Электотехника/Lab-02/Lab-02.xlsx
+++ b/Term-3/Электотехника/Lab-02/Lab-02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\IT\IU5\Term-3\Электотехника\Lab-02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBCE1A9-7E57-4C5B-9FEF-13DE51931883}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4688FD80-5B86-413F-B9A4-A0E5EFF33827}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{195C08B7-9934-45AB-919D-26387199E3A7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>R,  Ом</t>
   </si>
@@ -36,10 +36,13 @@
     <t>∞</t>
   </si>
   <si>
-    <t>I, А</t>
+    <t>r</t>
   </si>
   <si>
-    <t>r</t>
+    <t>I, мА</t>
+  </si>
+  <si>
+    <t>1.25кОма</t>
   </si>
 </sst>
 </file>
@@ -98,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -117,6 +120,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -195,64 +201,67 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$16</c:f>
+              <c:f>Лист1!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1058666666666668E-3</c:v>
+                  <c:v>1.1058666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.682333333333333E-3</c:v>
+                  <c:v>3.6823333333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1008666666666668E-2</c:v>
+                  <c:v>11.008666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4329565217391304E-2</c:v>
+                  <c:v>14.329565217391304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9996875000000001E-2</c:v>
+                  <c:v>15.677619047619048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9996666666666666E-2</c:v>
+                  <c:v>17.299473684210529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9997037037037035E-2</c:v>
+                  <c:v>17.756756756756758</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9997500000000001E-2</c:v>
+                  <c:v>18.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9998000000000002E-2</c:v>
+                  <c:v>19.471428571428575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9998666666666668E-2</c:v>
+                  <c:v>19.996874999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9998000000000002E-2</c:v>
+                  <c:v>19.996774193548386</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.02</c:v>
+                  <c:v>19.998000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.02</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.02</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$16</c:f>
+              <c:f>Лист1!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>33.191000000000003</c:v>
                 </c:pt>
@@ -269,33 +278,36 @@
                   <c:v>32.957999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>32.923000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.869</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.712000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>31.995000000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.995000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26.995999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23.997</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>30.995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>19.998000000000001</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.999000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.9990000000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -365,7 +377,15 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> A</a:t>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>м</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>A</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
@@ -375,8 +395,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.89534654661641133"/>
-              <c:y val="0.82220318881420851"/>
+              <c:x val="0.88704558667959521"/>
+              <c:y val="0.82220319744115045"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1191,16 +1211,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>642936</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1525,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8F45B-F179-4DA9-9F28-FE710D1635E2}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1541,10 +1561,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1559,7 +1579,7 @@
       </c>
       <c r="D2">
         <f>-(B3-B2)/(C3-C2)</f>
-        <v>13.564022184712352</v>
+        <v>1.3564022184712353E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1570,12 +1590,12 @@
         <v>33.176000000000002</v>
       </c>
       <c r="C3" s="5">
-        <f>B3/A3</f>
-        <v>1.1058666666666668E-3</v>
+        <f>B3/A3*1000</f>
+        <v>1.1058666666666668</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D16" si="0">-(B4-B3)/(C4-C3)</f>
-        <v>13.584495562399553</v>
+        <f t="shared" ref="D3:D14" si="0">-(B4-B3)/(C4-C3)</f>
+        <v>1.3584495562399551E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1586,12 +1606,12 @@
         <v>33.140999999999998</v>
       </c>
       <c r="C4" s="5">
-        <f>B4/A4</f>
-        <v>3.682333333333333E-3</v>
+        <f t="shared" ref="C4:C14" si="1">B4/A4*1000</f>
+        <v>3.6823333333333332</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>15.696801492332888</v>
+        <v>1.569680149233289E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1602,12 +1622,12 @@
         <v>33.026000000000003</v>
       </c>
       <c r="C5" s="5">
-        <f>B5/A5</f>
-        <v>1.1008666666666668E-2</v>
+        <f t="shared" si="1"/>
+        <v>11.008666666666668</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>20.476385821893604</v>
+        <v>2.0476385821893605E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1618,164 +1638,191 @@
         <v>32.957999999999998</v>
       </c>
       <c r="C6" s="5">
-        <f>B6/A6</f>
-        <v>1.4329565217391304E-2</v>
+        <f t="shared" si="1"/>
+        <v>14.329565217391304</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>169.92189185690194</v>
+        <v>2.5963354886268584E-2</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="B7" s="3">
-        <v>31.995000000000001</v>
+        <v>32.923000000000002</v>
       </c>
       <c r="C7" s="5">
-        <f>B7/A7</f>
-        <v>1.9996875000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>15.677619047619048</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-9599999.9999371078</v>
-      </c>
+        <v>3.3295215725059939E-2</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="B8" s="3">
-        <v>29.995000000000001</v>
+        <v>32.869</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:C15" si="1">B8/A8</f>
-        <v>1.9996666666666666E-2</v>
+        <f t="shared" si="1"/>
+        <v>17.299473684210529</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>8097300.0000228109</v>
-      </c>
+        <v>4.1549755809247788E-2</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
-        <v>1350</v>
+        <v>1850</v>
       </c>
       <c r="B9" s="3">
-        <v>26.995999999999999</v>
+        <v>32.85</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="1"/>
-        <v>1.9997037037037035E-2</v>
+        <v>17.756756756756758</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>6477839.9999575596</v>
-      </c>
+        <v>5.6843575418999315E-2</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
-        <v>1200</v>
+        <v>1760</v>
       </c>
       <c r="B10" s="3">
-        <v>23.997</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="1"/>
-        <v>1.9997500000000001E-2</v>
+        <v>18.636363636363637</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>7997999.999991999</v>
-      </c>
+        <v>0.10538102643856144</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
-        <v>1000</v>
+      <c r="A11" s="4">
+        <v>1680</v>
       </c>
       <c r="B11" s="3">
-        <v>19.998000000000001</v>
+        <v>32.712000000000003</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="1"/>
-        <v>1.9998000000000002E-2</v>
+        <v>19.471428571428575</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>7498500.0000055097</v>
-      </c>
+        <v>1.3645539507221907</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
-        <v>750</v>
+      <c r="A12" s="4">
+        <v>1600</v>
       </c>
       <c r="B12" s="3">
-        <v>14.999000000000001</v>
+        <v>31.995000000000001</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="1"/>
-        <v>1.9998666666666668E-2</v>
+        <v>19.996874999999999</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>-7500000.0000055097</v>
+        <v>-9920.0000000090222</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
-        <v>500</v>
+      <c r="A13" s="4">
+        <v>1550</v>
       </c>
       <c r="B13" s="3">
-        <v>9.9990000000000006</v>
+        <v>30.995000000000001</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="1"/>
-        <v>1.9998000000000002E-2</v>
+        <v>19.996774193548386</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>3999500.0000029383</v>
+        <v>8971.2368420926214</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>19.998000000000001</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>19.998000000000001</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>8999.0000000049877</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B15" s="3">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
+        <f>B15/A15*1000</f>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C16" s="5">
+        <f>B16/A16*1000</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="3">
         <v>0</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B17" s="6">
         <v>0</v>
       </c>
-      <c r="C16" s="5">
-        <v>0.02</v>
+      <c r="C17" s="5">
+        <f>0.02*1000</f>
+        <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="7"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Term-3/Электотехника/Lab-02/Lab-02.xlsx
+++ b/Term-3/Электотехника/Lab-02/Lab-02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\IT\IU5\Term-3\Электотехника\Lab-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4688FD80-5B86-413F-B9A4-A0E5EFF33827}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38CCA2A-14E6-4A9A-B069-BD878571169A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{195C08B7-9934-45AB-919D-26387199E3A7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>R,  Ом</t>
   </si>
@@ -39,10 +39,28 @@
     <t>r</t>
   </si>
   <si>
-    <t>I, мА</t>
+    <t>R=</t>
   </si>
   <si>
-    <t>1.25кОма</t>
+    <t>I, А</t>
+  </si>
+  <si>
+    <t>Ом</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U = </t>
+  </si>
+  <si>
+    <t>I =</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -101,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -124,6 +142,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -209,49 +230,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1058666666666668</c:v>
+                  <c:v>1.1058666666666668E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6823333333333332</c:v>
+                  <c:v>3.682333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.008666666666668</c:v>
+                  <c:v>1.1008666666666668E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.329565217391304</c:v>
+                  <c:v>1.4329565217391304E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.677619047619048</c:v>
+                  <c:v>1.5677619047619048E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.299473684210529</c:v>
+                  <c:v>1.7299473684210528E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.756756756756758</c:v>
+                  <c:v>1.7756756756756756E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.636363636363637</c:v>
+                  <c:v>1.8636363636363635E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.471428571428575</c:v>
+                  <c:v>1.9471428571428574E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.996874999999999</c:v>
+                  <c:v>1.9996875000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.996774193548386</c:v>
+                  <c:v>1.9996774193548388E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.998000000000001</c:v>
+                  <c:v>1.9998000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -317,6 +335,70 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-153C-4518-8F95-5019F6EA0A6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$20:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9600000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$20:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE6C-481D-B2BB-F7FCBF2A11E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -335,12 +417,14 @@
         <c:axId val="1544269200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.0100000000000003E-2"/>
+          <c:min val="1.9940000000000003E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -352,6 +436,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -473,12 +571,14 @@
         <c:axId val="1544270448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="25.0505"/>
+          <c:min val="24.960499999999996"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -490,6 +590,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1211,16 +1325,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>642936</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1545,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8F45B-F179-4DA9-9F28-FE710D1635E2}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1561,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>3</v>
@@ -1579,7 +1693,7 @@
       </c>
       <c r="D2">
         <f>-(B3-B2)/(C3-C2)</f>
-        <v>1.3564022184712353E-2</v>
+        <v>13.564022184712352</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1590,12 +1704,12 @@
         <v>33.176000000000002</v>
       </c>
       <c r="C3" s="5">
-        <f>B3/A3*1000</f>
-        <v>1.1058666666666668</v>
+        <f>B3/A3</f>
+        <v>1.1058666666666668E-3</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D14" si="0">-(B4-B3)/(C4-C3)</f>
-        <v>1.3584495562399551E-2</v>
+        <v>13.584495562399553</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1606,12 +1720,12 @@
         <v>33.140999999999998</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" ref="C4:C14" si="1">B4/A4*1000</f>
-        <v>3.6823333333333332</v>
+        <f t="shared" ref="C4:C16" si="1">B4/A4</f>
+        <v>3.682333333333333E-3</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1.569680149233289E-2</v>
+        <v>15.696801492332888</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1623,11 +1737,11 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>11.008666666666668</v>
+        <v>1.1008666666666668E-2</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>2.0476385821893605E-2</v>
+        <v>20.476385821893604</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1639,11 +1753,11 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>14.329565217391304</v>
+        <v>1.4329565217391304E-2</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>2.5963354886268584E-2</v>
+        <v>25.963354886268586</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1656,11 +1770,11 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>15.677619047619048</v>
+        <v>1.5677619047619048E-2</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3.3295215725059939E-2</v>
+        <v>33.295215725059961</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1673,11 +1787,11 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="1"/>
-        <v>17.299473684210529</v>
+        <v>1.7299473684210528E-2</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>4.1549755809247788E-2</v>
+        <v>41.549755809247799</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1690,11 +1804,11 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="1"/>
-        <v>17.756756756756758</v>
+        <v>1.7756756756756756E-2</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>5.6843575418999315E-2</v>
+        <v>56.843575418999336</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1707,11 +1821,11 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="1"/>
-        <v>18.636363636363637</v>
+        <v>1.8636363636363635E-2</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.10538102643856144</v>
+        <v>105.38102643856141</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1724,11 +1838,11 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="1"/>
-        <v>19.471428571428575</v>
+        <v>1.9471428571428574E-2</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1.3645539507221907</v>
+        <v>1364.5539507221829</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1741,11 +1855,11 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="1"/>
-        <v>19.996874999999999</v>
+        <v>1.9996875000000001E-2</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>-9920.0000000090222</v>
+        <v>-9919999.9999680519</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -1757,11 +1871,11 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="1"/>
-        <v>19.996774193548386</v>
+        <v>1.9996774193548388E-2</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>8971.2368420926214</v>
+        <v>8971236.8420946524</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -1773,11 +1887,11 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="1"/>
-        <v>19.998000000000001</v>
+        <v>1.9998000000000002E-2</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>8999.0000000049877</v>
+        <v>8999000.0000066124</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -1788,8 +1902,8 @@
         <v>2</v>
       </c>
       <c r="C15" s="5">
-        <f>B15/A15*1000</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -1800,28 +1914,84 @@
         <v>0.02</v>
       </c>
       <c r="C16" s="5">
-        <f>B16/A16*1000</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>0</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
       </c>
-      <c r="C17" s="5">
-        <f>0.02*1000</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>5</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>1250</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="7">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <f>B21/(C19)</f>
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>0.02</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <f>24.9911</f>
+        <v>24.991099999999999</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.45">
+      <c r="O34" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Term-3/Электотехника/Lab-02/Lab-02.xlsx
+++ b/Term-3/Электотехника/Lab-02/Lab-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\IT\IU5\Term-3\Электотехника\Lab-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38CCA2A-14E6-4A9A-B069-BD878571169A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646E2807-852F-4F14-BD5E-BAE3BC670EFC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{195C08B7-9934-45AB-919D-26387199E3A7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>R,  Ом</t>
   </si>
@@ -62,6 +62,18 @@
   <si>
     <t>B</t>
   </si>
+  <si>
+    <t>Расчитанные значения</t>
+  </si>
+  <si>
+    <t>Измеренные значения</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I = </t>
+  </si>
+  <si>
+    <t>U=</t>
+  </si>
 </sst>
 </file>
 
@@ -92,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -115,11 +127,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -145,6 +243,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,6 +521,122 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.9997299999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24.9968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A42-4A24-8972-C4EBC49DCEBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24.997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6A42-4A24-8972-C4EBC49DCEBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -418,7 +653,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0100000000000003E-2"/>
-          <c:min val="1.9940000000000003E-2"/>
+          <c:min val="1.9950000000000006E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1325,14 +1560,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>303138</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>646039</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -1661,11 +1896,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8F45B-F179-4DA9-9F28-FE710D1635E2}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="10.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
@@ -1918,7 +2157,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>0</v>
       </c>
@@ -1927,10 +2166,10 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B19" s="9" t="s">
         <v>4</v>
       </c>
@@ -1941,7 +2180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B20" s="7">
         <v>0</v>
       </c>
@@ -1949,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B21" s="7">
         <v>37</v>
       </c>
@@ -1958,33 +2197,65 @@
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B22" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B26" s="9" t="s">
+    <row r="24" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="25" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="10">
+        <f>0.0199973</f>
+        <v>1.9997299999999999E-2</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="10">
         <v>0.02</v>
       </c>
-      <c r="D26" t="s">
+      <c r="G26" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="9" t="s">
+    <row r="27" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C27">
-        <f>24.9911</f>
-        <v>24.991099999999999</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="12">
+        <f>24.9968</f>
+        <v>24.9968</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="12">
+        <v>24.997</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>7</v>
       </c>
@@ -1995,6 +2266,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Term-3/Электотехника/Lab-02/Lab-02.xlsx
+++ b/Term-3/Электотехника/Lab-02/Lab-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\IT\IU5\Term-3\Электотехника\Lab-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646E2807-852F-4F14-BD5E-BAE3BC670EFC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B696938-C9D5-4759-9379-FA1D4C514B35}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{195C08B7-9934-45AB-919D-26387199E3A7}"/>
   </bookViews>
@@ -806,8 +806,8 @@
         <c:axId val="1544270448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25.0505"/>
-          <c:min val="24.960499999999996"/>
+          <c:max val="25.0502"/>
+          <c:min val="24.960799999999999"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -874,8 +874,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.10112665689674452"/>
-              <c:y val="3.0831748396799502E-2"/>
+              <c:x val="9.8004776991581832E-2"/>
+              <c:y val="8.4565722261782217E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1897,7 +1897,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Term-3/Электотехника/Lab-02/Lab-02.xlsx
+++ b/Term-3/Электотехника/Lab-02/Lab-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\IT\IU5\Term-3\Электотехника\Lab-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B696938-C9D5-4759-9379-FA1D4C514B35}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58B6C4F-D3A5-4151-ACD5-71B4705492CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{195C08B7-9934-45AB-919D-26387199E3A7}"/>
   </bookViews>
@@ -42,16 +42,10 @@
     <t>R=</t>
   </si>
   <si>
-    <t>I, А</t>
-  </si>
-  <si>
     <t>Ом</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t xml:space="preserve">U = </t>
@@ -73,6 +67,12 @@
   </si>
   <si>
     <t>U=</t>
+  </si>
+  <si>
+    <t>I, мА</t>
+  </si>
+  <si>
+    <t>мА</t>
   </si>
 </sst>
 </file>
@@ -349,46 +349,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1058666666666668E-3</c:v>
+                  <c:v>1.1058666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.682333333333333E-3</c:v>
+                  <c:v>3.6823333333333332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1008666666666668E-2</c:v>
+                  <c:v>11.008666666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4329565217391304E-2</c:v>
+                  <c:v>14.329565217391304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5677619047619048E-2</c:v>
+                  <c:v>15.677619047619048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7299473684210528E-2</c:v>
+                  <c:v>17.299473684210529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7756756756756756E-2</c:v>
+                  <c:v>17.756756756756758</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8636363636363635E-2</c:v>
+                  <c:v>18.636363636363637</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9471428571428574E-2</c:v>
+                  <c:v>19.471428571428575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9996875000000001E-2</c:v>
+                  <c:v>19.996874999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9996774193548388E-2</c:v>
+                  <c:v>19.996774193548386</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9998000000000002E-2</c:v>
+                  <c:v>19.998000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.02</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.02</c:v>
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,186 +457,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-153C-4518-8F95-5019F6EA0A6B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$C$20:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9600000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$B$20:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE6C-481D-B2BB-F7FCBF2A11E4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.9997299999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>24.9968</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A42-4A24-8972-C4EBC49DCEBF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$F$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$F$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>24.997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6A42-4A24-8972-C4EBC49DCEBF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -647,13 +470,237 @@
         </c:dLbls>
         <c:axId val="1544269200"/>
         <c:axId val="1544270448"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$C$20:$C$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>29.6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$20:$B$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>37</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-FE6C-481D-B2BB-F7FCBF2A11E4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$C$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>19.997299999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$C$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>24.994</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-6A42-4A24-8972-C4EBC49DCEBF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$F$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$F$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>24.997</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-6A42-4A24-8972-C4EBC49DCEBF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1544269200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.0100000000000003E-2"/>
-          <c:min val="1.9950000000000006E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -806,8 +853,6 @@
         <c:axId val="1544270448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25.0502"/>
-          <c:min val="24.960799999999999"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1896,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D8F45B-F179-4DA9-9F28-FE710D1635E2}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1914,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>3</v>
@@ -1932,7 +1977,7 @@
       </c>
       <c r="D2">
         <f>-(B3-B2)/(C3-C2)</f>
-        <v>13.564022184712352</v>
+        <v>1.3564022184712353E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -1943,12 +1988,12 @@
         <v>33.176000000000002</v>
       </c>
       <c r="C3" s="5">
-        <f>B3/A3</f>
-        <v>1.1058666666666668E-3</v>
+        <f>B3/A3*1000</f>
+        <v>1.1058666666666668</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D14" si="0">-(B4-B3)/(C4-C3)</f>
-        <v>13.584495562399553</v>
+        <f t="shared" ref="D3:D15" si="0">-(B4-B3)/(C4-C3)</f>
+        <v>1.3584495562399551E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1959,12 +2004,12 @@
         <v>33.140999999999998</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" ref="C4:C16" si="1">B4/A4</f>
-        <v>3.682333333333333E-3</v>
+        <f t="shared" ref="C4:C16" si="1">B4/A4*1000</f>
+        <v>3.6823333333333332</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>15.696801492332888</v>
+        <v>1.569680149233289E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1976,11 +2021,11 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>1.1008666666666668E-2</v>
+        <v>11.008666666666668</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>20.476385821893604</v>
+        <v>2.0476385821893605E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1992,11 +2037,11 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>1.4329565217391304E-2</v>
+        <v>14.329565217391304</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>25.963354886268586</v>
+        <v>2.5963354886268584E-2</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -2009,11 +2054,11 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>1.5677619047619048E-2</v>
+        <v>15.677619047619048</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>33.295215725059961</v>
+        <v>3.3295215725059939E-2</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -2026,11 +2071,11 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="1"/>
-        <v>1.7299473684210528E-2</v>
+        <v>17.299473684210529</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>41.549755809247799</v>
+        <v>4.1549755809247788E-2</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2043,11 +2088,11 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="1"/>
-        <v>1.7756756756756756E-2</v>
+        <v>17.756756756756758</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>56.843575418999336</v>
+        <v>5.6843575418999315E-2</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -2060,11 +2105,11 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="1"/>
-        <v>1.8636363636363635E-2</v>
+        <v>18.636363636363637</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>105.38102643856141</v>
+        <v>0.10538102643856144</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2077,11 +2122,11 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="1"/>
-        <v>1.9471428571428574E-2</v>
+        <v>19.471428571428575</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1364.5539507221829</v>
+        <f>-(B12-B11)/(C12-C11)</f>
+        <v>1.3645539507221907</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -2094,11 +2139,11 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="1"/>
-        <v>1.9996875000000001E-2</v>
+        <v>19.996874999999999</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>-9919999.9999680519</v>
+        <v>-9920.0000000090222</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -2110,11 +2155,11 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="1"/>
-        <v>1.9996774193548388E-2</v>
+        <v>19.996774193548386</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>8971236.8420946524</v>
+        <v>8971.2368420926214</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -2126,11 +2171,11 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="1"/>
-        <v>1.9998000000000002E-2</v>
+        <v>19.998000000000001</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>8999000.0000066124</v>
+        <v>8999.0000000049877</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -2142,7 +2187,7 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -2154,7 +2199,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -2164,7 +2209,9 @@
       <c r="B17" s="6">
         <v>0</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
@@ -2177,7 +2224,7 @@
         <v>1250</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -2193,8 +2240,8 @@
         <v>37</v>
       </c>
       <c r="C21">
-        <f>B21/(C19)</f>
-        <v>2.9600000000000001E-2</v>
+        <f>B21/C19*1000</f>
+        <v>29.6</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -2203,66 +2250,67 @@
     <row r="24" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B26" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" s="10">
-        <f>0.0199973</f>
-        <v>1.9997299999999999E-2</v>
+        <f>0.0199973*1000</f>
+        <v>19.997299999999999</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F26" s="10">
-        <v>0.02</v>
+        <f>0.02*1000</f>
+        <v>20</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="12">
+        <f>24.994</f>
+        <v>24.994</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="12">
-        <f>24.9968</f>
-        <v>24.9968</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="E27" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F27" s="12">
         <v>24.997</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="15:15" x14ac:dyDescent="0.45">
       <c r="O34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
